--- a/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 3 (1–6 Septiembre).xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprints/Burdown Chart/Burndown Chart – Sprint 3 (1–6 Septiembre).xlsx
@@ -349,11 +349,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="634565417"/>
-        <c:axId val="281968035"/>
+        <c:axId val="970538274"/>
+        <c:axId val="119398222"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="634565417"/>
+        <c:axId val="970538274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,10 +405,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281968035"/>
+        <c:crossAx val="119398222"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281968035"/>
+        <c:axId val="119398222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634565417"/>
+        <c:crossAx val="970538274"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -762,7 +762,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
@@ -845,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
@@ -887,7 +887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
